--- a/Material_database.xlsx
+++ b/Material_database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paramesh\Documents\GitHub\Param-Woks\SCAPPS work\Scaps simulation files\Material_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIBYENDU\Documents\GitHub\SCAPS1D-material_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5032BFF-663F-409C-BD2B-317203587374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1632,7 +1631,7 @@
       </c>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>

--- a/Material_database.xlsx
+++ b/Material_database.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -174,13 +175,28 @@
   </si>
   <si>
     <t>Reference tickness (in um)</t>
+  </si>
+  <si>
+    <t>Cs2SnI6</t>
+  </si>
+  <si>
+    <t>DOI: 10.1002/adts.202200207</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>0.01-0.05</t>
+  </si>
+  <si>
+    <t>DOI: DOI: 10.1002/adts.202200207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +208,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,8 +274,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -557,15 +605,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="17.28515625" style="5" customWidth="1"/>
-    <col min="3" max="16" width="9.140625" style="3"/>
+    <col min="3" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="57.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
@@ -674,7 +730,7 @@
         <v>10000000</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -727,7 +783,7 @@
       <c r="P4" s="4">
         <v>10000000</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -778,7 +834,7 @@
       <c r="P5" s="4">
         <v>10000000</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -814,7 +870,7 @@
       <c r="P6" s="4">
         <v>10000000</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -850,7 +906,7 @@
       <c r="P7" s="4">
         <v>10000000</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -886,7 +942,7 @@
       <c r="P8" s="4">
         <v>10000000</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -922,7 +978,7 @@
       <c r="P9" s="4">
         <v>10000000</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -976,7 +1032,7 @@
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1029,7 +1085,7 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1083,7 +1139,7 @@
       <c r="Q12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1134,7 +1190,7 @@
       <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1185,7 +1241,7 @@
       <c r="P14" s="4">
         <v>10000000</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1238,7 +1294,7 @@
       <c r="P15" s="4">
         <v>10000000</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1289,7 +1345,7 @@
       <c r="P16" s="4">
         <v>10000000</v>
       </c>
-      <c r="R16" s="6"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1337,7 +1393,7 @@
       <c r="P17" s="4">
         <v>10000000</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1435,7 +1491,7 @@
       <c r="P19" s="4">
         <v>10000000</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1485,7 +1541,7 @@
       <c r="P20" s="4">
         <v>10000000</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1533,7 +1589,7 @@
       <c r="P21" s="4">
         <v>10000000</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1581,7 +1637,7 @@
       <c r="P22" s="4">
         <v>10000000</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1629,7 +1685,7 @@
       <c r="P23" s="4">
         <v>10000000</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1677,40 +1733,132 @@
       <c r="P24" s="4">
         <v>10000000</v>
       </c>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G25" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1E+18</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1E+21</v>
+      </c>
+      <c r="J25" s="4">
+        <v>310</v>
+      </c>
+      <c r="K25" s="4">
+        <v>42</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1E+17</v>
+      </c>
+      <c r="O25" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="P25" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.2E+18</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.8E+19</v>
+      </c>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
+      <c r="K26" s="4">
+        <v>30</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1000000000000000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="P26" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1834,6 +1982,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Material_database.xlsx
+++ b/Material_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView minimized="1" xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,15 +274,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +733,7 @@
         <v>10000000</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -783,7 +786,7 @@
       <c r="P4" s="4">
         <v>10000000</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -834,7 +837,7 @@
       <c r="P5" s="4">
         <v>10000000</v>
       </c>
-      <c r="R5" s="7"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -870,7 +873,7 @@
       <c r="P6" s="4">
         <v>10000000</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -906,7 +909,7 @@
       <c r="P7" s="4">
         <v>10000000</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -942,7 +945,7 @@
       <c r="P8" s="4">
         <v>10000000</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -978,7 +981,7 @@
       <c r="P9" s="4">
         <v>10000000</v>
       </c>
-      <c r="R9" s="7"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1032,7 +1035,7 @@
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1085,7 +1088,7 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="7"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1139,7 +1142,7 @@
       <c r="Q12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="7"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1190,7 +1193,7 @@
       <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="7"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1241,7 +1244,7 @@
       <c r="P14" s="4">
         <v>10000000</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1294,7 +1297,7 @@
       <c r="P15" s="4">
         <v>10000000</v>
       </c>
-      <c r="R15" s="7"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1345,7 +1348,7 @@
       <c r="P16" s="4">
         <v>10000000</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1393,7 +1396,7 @@
       <c r="P17" s="4">
         <v>10000000</v>
       </c>
-      <c r="R17" s="7"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1491,7 +1494,7 @@
       <c r="P19" s="4">
         <v>10000000</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1541,7 +1544,7 @@
       <c r="P20" s="4">
         <v>10000000</v>
       </c>
-      <c r="R20" s="7"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1589,7 +1592,7 @@
       <c r="P21" s="4">
         <v>10000000</v>
       </c>
-      <c r="R21" s="7"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1637,7 +1640,7 @@
       <c r="P22" s="4">
         <v>10000000</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1685,7 +1688,7 @@
       <c r="P23" s="4">
         <v>10000000</v>
       </c>
-      <c r="R23" s="7"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1733,7 +1736,7 @@
       <c r="P24" s="4">
         <v>10000000</v>
       </c>
-      <c r="R24" s="7"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1781,8 +1784,8 @@
       <c r="P25" s="4">
         <v>10000000</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9" t="s">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1832,7 +1835,7 @@
       <c r="P26" s="4">
         <v>10000000</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1840,7 +1843,7 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="R27" s="10"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1981,8 +1984,13 @@
       <formula>NOT(ISERROR(SEARCH("Contact",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="R10" r:id="rId1"/>
+    <hyperlink ref="R14" r:id="rId2"/>
+    <hyperlink ref="R19" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Material_database.xlsx
+++ b/Material_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>DOI: DOI: 10.1002/adts.202200207</t>
+  </si>
+  <si>
+    <t>Cs2AgBiBr6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11082-021-02959-z</t>
+  </si>
+  <si>
+    <t>ITO</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -279,14 +288,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +743,7 @@
         <v>10000000</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -786,7 +796,7 @@
       <c r="P4" s="4">
         <v>10000000</v>
       </c>
-      <c r="R4" s="10"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -837,7 +847,7 @@
       <c r="P5" s="4">
         <v>10000000</v>
       </c>
-      <c r="R5" s="10"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -873,7 +883,7 @@
       <c r="P6" s="4">
         <v>10000000</v>
       </c>
-      <c r="R6" s="10"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -909,7 +919,7 @@
       <c r="P7" s="4">
         <v>10000000</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -945,7 +955,7 @@
       <c r="P8" s="4">
         <v>10000000</v>
       </c>
-      <c r="R8" s="10"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -981,7 +991,7 @@
       <c r="P9" s="4">
         <v>10000000</v>
       </c>
-      <c r="R9" s="10"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1035,7 +1045,7 @@
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1088,7 +1098,7 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1142,7 +1152,7 @@
       <c r="Q12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="10"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1193,7 +1203,7 @@
       <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="10"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1244,7 +1254,7 @@
       <c r="P14" s="4">
         <v>10000000</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1297,7 +1307,7 @@
       <c r="P15" s="4">
         <v>10000000</v>
       </c>
-      <c r="R15" s="10"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1348,7 +1358,7 @@
       <c r="P16" s="4">
         <v>10000000</v>
       </c>
-      <c r="R16" s="10"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1396,7 +1406,7 @@
       <c r="P17" s="4">
         <v>10000000</v>
       </c>
-      <c r="R17" s="10"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1494,7 +1504,7 @@
       <c r="P19" s="4">
         <v>10000000</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1544,7 +1554,7 @@
       <c r="P20" s="4">
         <v>10000000</v>
       </c>
-      <c r="R20" s="10"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1592,7 +1602,7 @@
       <c r="P21" s="4">
         <v>10000000</v>
       </c>
-      <c r="R21" s="10"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1640,7 +1650,7 @@
       <c r="P22" s="4">
         <v>10000000</v>
       </c>
-      <c r="R22" s="10"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1688,7 +1698,7 @@
       <c r="P23" s="4">
         <v>10000000</v>
       </c>
-      <c r="R23" s="10"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1736,7 +1746,7 @@
       <c r="P24" s="4">
         <v>10000000</v>
       </c>
-      <c r="R24" s="10"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1843,13 +1853,107 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1E+16</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1E+16</v>
+      </c>
+      <c r="J27" s="3">
+        <v>11.81</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1E+19</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1E+19</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3.678E+16</v>
+      </c>
+      <c r="O27" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="P27" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="R28" s="6"/>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.65</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5.2E+18</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1E+18</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1E+20</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1000000000000000</v>
+      </c>
+      <c r="O28" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="P28" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1988,9 +2092,11 @@
     <hyperlink ref="R10" r:id="rId1"/>
     <hyperlink ref="R14" r:id="rId2"/>
     <hyperlink ref="R19" r:id="rId3"/>
+    <hyperlink ref="R27" r:id="rId4"/>
+    <hyperlink ref="R28" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Material_database.xlsx
+++ b/Material_database.xlsx
@@ -290,13 +290,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>10000000</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
       <c r="P4" s="4">
         <v>10000000</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -847,7 +847,7 @@
       <c r="P5" s="4">
         <v>10000000</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -883,7 +883,7 @@
       <c r="P6" s="4">
         <v>10000000</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -919,7 +919,7 @@
       <c r="P7" s="4">
         <v>10000000</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -955,7 +955,7 @@
       <c r="P8" s="4">
         <v>10000000</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -991,7 +991,7 @@
       <c r="P9" s="4">
         <v>10000000</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1045,7 +1045,7 @@
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1152,7 +1152,7 @@
       <c r="Q12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="11"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1203,7 +1203,7 @@
       <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1254,7 +1254,7 @@
       <c r="P14" s="4">
         <v>10000000</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       <c r="P15" s="4">
         <v>10000000</v>
       </c>
-      <c r="R15" s="11"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1358,7 +1358,7 @@
       <c r="P16" s="4">
         <v>10000000</v>
       </c>
-      <c r="R16" s="11"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1406,7 +1406,7 @@
       <c r="P17" s="4">
         <v>10000000</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1504,7 +1504,7 @@
       <c r="P19" s="4">
         <v>10000000</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="P20" s="4">
         <v>10000000</v>
       </c>
-      <c r="R20" s="11"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1602,7 +1602,7 @@
       <c r="P21" s="4">
         <v>10000000</v>
       </c>
-      <c r="R21" s="11"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1650,7 +1650,7 @@
       <c r="P22" s="4">
         <v>10000000</v>
       </c>
-      <c r="R22" s="11"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1698,7 +1698,7 @@
       <c r="P23" s="4">
         <v>10000000</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1746,7 +1746,7 @@
       <c r="P24" s="4">
         <v>10000000</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1898,7 +1898,7 @@
       <c r="P27" s="4">
         <v>10000000</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="10" t="s">
         <v>56</v>
       </c>
     </row>
